--- a/Local_files/GUI_files/Results/Case_Study_2_substitutions.xlsx
+++ b/Local_files/GUI_files/Results/Case_Study_2_substitutions.xlsx
@@ -5200,45 +5200,48 @@
     <t>S558</t>
   </si>
   <si>
+    <t>S857</t>
+  </si>
+  <si>
+    <t>S527</t>
+  </si>
+  <si>
+    <t>S932</t>
+  </si>
+  <si>
+    <t>S277</t>
+  </si>
+  <si>
+    <t>S443</t>
+  </si>
+  <si>
+    <t>S297</t>
+  </si>
+  <si>
+    <t>S686</t>
+  </si>
+  <si>
+    <t>S910</t>
+  </si>
+  <si>
+    <t>S475</t>
+  </si>
+  <si>
+    <t>N768</t>
+  </si>
+  <si>
+    <t>S381</t>
+  </si>
+  <si>
+    <t>S271</t>
+  </si>
+  <si>
+    <t>S94</t>
+  </si>
+  <si>
     <t>S31</t>
   </si>
   <si>
-    <t>S527</t>
-  </si>
-  <si>
-    <t>S932</t>
-  </si>
-  <si>
-    <t>S277</t>
-  </si>
-  <si>
-    <t>S443</t>
-  </si>
-  <si>
-    <t>S297</t>
-  </si>
-  <si>
-    <t>S686</t>
-  </si>
-  <si>
-    <t>S910</t>
-  </si>
-  <si>
-    <t>S475</t>
-  </si>
-  <si>
-    <t>N768</t>
-  </si>
-  <si>
-    <t>S381</t>
-  </si>
-  <si>
-    <t>S271</t>
-  </si>
-  <si>
-    <t>S94</t>
-  </si>
-  <si>
     <t>S407</t>
   </si>
   <si>
@@ -5729,9 +5732,6 @@
   </si>
   <si>
     <t>S130</t>
-  </si>
-  <si>
-    <t>S349</t>
   </si>
   <si>
     <t>S82</t>
@@ -12422,7 +12422,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="s">
-        <v>1728</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="775" spans="1:2">
@@ -12430,7 +12430,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="776" spans="1:2">
@@ -12438,7 +12438,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="777" spans="1:2">
@@ -12446,7 +12446,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="778" spans="1:2">
@@ -12454,7 +12454,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="779" spans="1:2">
@@ -12462,7 +12462,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="780" spans="1:2">
@@ -12470,7 +12470,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="781" spans="1:2">
@@ -12478,7 +12478,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="782" spans="1:2">
@@ -12486,7 +12486,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="783" spans="1:2">
@@ -12494,7 +12494,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="784" spans="1:2">
@@ -12502,7 +12502,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -12510,7 +12510,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="786" spans="1:2">
@@ -12518,7 +12518,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="787" spans="1:2">
@@ -12526,7 +12526,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="788" spans="1:2">
@@ -12534,7 +12534,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="789" spans="1:2">
@@ -12542,7 +12542,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="790" spans="1:2">
@@ -12550,7 +12550,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -12558,7 +12558,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -12574,7 +12574,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="794" spans="1:2">
@@ -12582,7 +12582,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="795" spans="1:2">
@@ -12590,7 +12590,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="796" spans="1:2">
@@ -12598,7 +12598,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -12606,7 +12606,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="798" spans="1:2">
@@ -12614,7 +12614,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="799" spans="1:2">
@@ -12622,7 +12622,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="800" spans="1:2">
@@ -12630,7 +12630,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="801" spans="1:2">
@@ -12638,7 +12638,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="802" spans="1:2">
@@ -12646,7 +12646,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -12662,7 +12662,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="805" spans="1:2">
@@ -12670,7 +12670,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="806" spans="1:2">
@@ -12678,7 +12678,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="807" spans="1:2">
@@ -12686,7 +12686,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="808" spans="1:2">
@@ -12694,7 +12694,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="809" spans="1:2">
@@ -12702,7 +12702,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="810" spans="1:2">
@@ -12710,7 +12710,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="811" spans="1:2">
@@ -12718,7 +12718,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="812" spans="1:2">
@@ -12742,7 +12742,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -12750,7 +12750,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="816" spans="1:2">
@@ -12758,7 +12758,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="817" spans="1:2">
@@ -12766,7 +12766,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="818" spans="1:2">
@@ -12774,7 +12774,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="819" spans="1:2">
@@ -12782,7 +12782,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="820" spans="1:2">
@@ -12790,7 +12790,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="821" spans="1:2">
@@ -12798,7 +12798,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="822" spans="1:2">
@@ -12806,7 +12806,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="823" spans="1:2">
@@ -12814,7 +12814,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="824" spans="1:2">
@@ -12822,7 +12822,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="825" spans="1:2">
@@ -12830,7 +12830,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="826" spans="1:2">
@@ -12838,7 +12838,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="827" spans="1:2">
@@ -12846,7 +12846,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="828" spans="1:2">
@@ -12854,7 +12854,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="829" spans="1:2">
@@ -12870,7 +12870,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="831" spans="1:2">
@@ -12878,7 +12878,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="832" spans="1:2">
@@ -12886,7 +12886,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="833" spans="1:2">
@@ -12894,7 +12894,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="834" spans="1:2">
@@ -12902,7 +12902,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -12910,7 +12910,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -12918,7 +12918,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -12934,7 +12934,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="839" spans="1:2">
@@ -12942,7 +12942,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="840" spans="1:2">
@@ -12950,7 +12950,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="841" spans="1:2">
@@ -12958,7 +12958,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="842" spans="1:2">
@@ -12974,7 +12974,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -12982,7 +12982,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -12990,7 +12990,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -12998,7 +12998,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="847" spans="1:2">
@@ -13006,7 +13006,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="848" spans="1:2">
@@ -13014,7 +13014,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="849" spans="1:2">
@@ -13022,7 +13022,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="850" spans="1:2">
@@ -13038,7 +13038,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -13046,7 +13046,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="853" spans="1:2">
@@ -13054,7 +13054,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="854" spans="1:2">
@@ -13062,7 +13062,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="855" spans="1:2">
@@ -13070,7 +13070,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="856" spans="1:2">
@@ -13078,7 +13078,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="857" spans="1:2">
@@ -13086,7 +13086,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -13094,7 +13094,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="859" spans="1:2">
@@ -13102,7 +13102,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="860" spans="1:2">
@@ -13110,7 +13110,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="861" spans="1:2">
@@ -13118,7 +13118,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="862" spans="1:2">
@@ -13126,7 +13126,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="863" spans="1:2">
@@ -13134,7 +13134,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="864" spans="1:2">
@@ -13142,7 +13142,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="865" spans="1:2">
@@ -13150,7 +13150,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -13158,7 +13158,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="867" spans="1:2">
@@ -13166,7 +13166,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="868" spans="1:2">
@@ -13174,7 +13174,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="869" spans="1:2">
@@ -13182,7 +13182,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="870" spans="1:2">
@@ -13190,7 +13190,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="871" spans="1:2">
@@ -13198,7 +13198,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="872" spans="1:2">
@@ -13206,7 +13206,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="873" spans="1:2">
@@ -13214,7 +13214,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="874" spans="1:2">
@@ -13222,7 +13222,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -13230,7 +13230,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="876" spans="1:2">
@@ -13238,7 +13238,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="877" spans="1:2">
@@ -13246,7 +13246,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="878" spans="1:2">
@@ -13254,7 +13254,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="879" spans="1:2">
@@ -13262,7 +13262,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="880" spans="1:2">
@@ -13270,7 +13270,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="881" spans="1:2">
@@ -13278,7 +13278,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="882" spans="1:2">
@@ -13286,7 +13286,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="883" spans="1:2">
@@ -13310,7 +13310,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="886" spans="1:2">
@@ -13318,7 +13318,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -13326,7 +13326,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="888" spans="1:2">
@@ -13334,7 +13334,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -13342,7 +13342,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="890" spans="1:2">
@@ -13350,7 +13350,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="891" spans="1:2">
@@ -13358,7 +13358,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="892" spans="1:2">
@@ -13366,7 +13366,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="893" spans="1:2">
@@ -13374,7 +13374,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="894" spans="1:2">
@@ -13382,7 +13382,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="895" spans="1:2">
@@ -13390,7 +13390,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -13398,7 +13398,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -13406,7 +13406,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="898" spans="1:2">
@@ -13414,7 +13414,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="899" spans="1:2">
@@ -13422,7 +13422,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="900" spans="1:2">
@@ -13430,7 +13430,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="901" spans="1:2">
@@ -13438,7 +13438,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="902" spans="1:2">
@@ -13446,7 +13446,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="903" spans="1:2">
@@ -13454,7 +13454,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="904" spans="1:2">
@@ -13462,7 +13462,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="905" spans="1:2">
@@ -13470,7 +13470,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="906" spans="1:2">
@@ -13478,7 +13478,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -13486,7 +13486,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="908" spans="1:2">
@@ -13494,7 +13494,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="909" spans="1:2">
@@ -13502,7 +13502,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="910" spans="1:2">
@@ -13510,7 +13510,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="911" spans="1:2">
@@ -13518,7 +13518,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -13526,7 +13526,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="913" spans="1:2">
@@ -13534,7 +13534,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="914" spans="1:2">
@@ -13542,7 +13542,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="915" spans="1:2">
@@ -13550,7 +13550,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="916" spans="1:2">
@@ -13558,7 +13558,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="917" spans="1:2">
@@ -13566,7 +13566,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="918" spans="1:2">
@@ -13574,7 +13574,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="919" spans="1:2">
@@ -13582,7 +13582,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="920" spans="1:2">
@@ -13590,7 +13590,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="921" spans="1:2">
@@ -13598,7 +13598,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="922" spans="1:2">
@@ -13606,7 +13606,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="923" spans="1:2">
@@ -13614,7 +13614,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="924" spans="1:2">
@@ -13622,7 +13622,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="925" spans="1:2">
@@ -13630,7 +13630,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="926" spans="1:2">
@@ -13638,7 +13638,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -13646,7 +13646,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="928" spans="1:2">
@@ -13654,7 +13654,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="929" spans="1:2">
@@ -13662,7 +13662,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="930" spans="1:2">
@@ -13670,7 +13670,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -13678,7 +13678,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -13686,7 +13686,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -13694,7 +13694,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="934" spans="1:2">
@@ -13702,7 +13702,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="935" spans="1:2">
@@ -13710,7 +13710,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="936" spans="1:2">
@@ -13718,7 +13718,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="937" spans="1:2">
@@ -13726,7 +13726,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="938" spans="1:2">
@@ -13734,7 +13734,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="939" spans="1:2">
@@ -13742,7 +13742,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="940" spans="1:2">
@@ -13750,7 +13750,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="941" spans="1:2">
@@ -13758,7 +13758,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="942" spans="1:2">
@@ -13766,7 +13766,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="943" spans="1:2">
@@ -13774,7 +13774,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="944" spans="1:2">
@@ -13782,7 +13782,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="945" spans="1:2">
@@ -13790,7 +13790,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="946" spans="1:2">
@@ -13798,7 +13798,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="947" spans="1:2">
@@ -13806,7 +13806,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="948" spans="1:2">
@@ -13814,7 +13814,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="949" spans="1:2">
@@ -13822,7 +13822,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -13830,7 +13830,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="s">
-        <v>1905</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="951" spans="1:2">
